--- a/peticoes/ent_ident.xlsx
+++ b/peticoes/ent_ident.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,10 +506,15 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>PER_2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>TELEFONE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>TEXT</t>
         </is>
@@ -536,6 +541,11 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>São Paulo, 02 de setembro de 2024.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -553,7 +563,8 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Ao</t>
         </is>
@@ -573,11 +584,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>LEONILDO ROLIM DOS SANTOS</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -586,8 +593,17 @@
           <t>Sr. Leonildo</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Sr. LEONILDO ROLIM DOS SANTOS</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Ilmo. [PER] (“[PER]”)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -614,6 +630,11 @@
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Ref: [PER] (10/06/2024) e Proposta (16/08/2024)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -627,22 +648,22 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SP nº</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>OAB</t>
+          <t>OAB/</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C.</t>
+          <t>C.:</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A/</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -652,6 +673,11 @@
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>[ORG][ORG] [PER] – [ORG][ORG] 84.009</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -674,6 +700,11 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">E-mail: [EMAIL] </t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -696,6 +727,11 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Prezado Senhor,</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -713,27 +749,32 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>HENRIQUE LINDENBOJM</t>
+          <t>HALBA MERY PEREBONI ROCCO e</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>HALBA MERY PEREBONI ROCCO</t>
+          <t>AFFONSO FERREIRA ADVOGADOS,</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>AFFONSO FERREIRA ADVOGADOS</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>BRL TRUST DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+          <t>BRL TRUST DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.,</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Dr. HENRIQUE LINDENBOJM</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">			Na qualidade de advogados da [ORG] cessionária dos honorários contratuais então titulados pelo escritório [ORG] Dra. [ORG] [PER], em resposta ao parecer e à proposta em referência, e considerando que:</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -760,6 +801,11 @@
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">			(a) a ora Notificante adquiriu de boa-fé os créditos de honorários devidos por décadas de patrocínio da ação de [PER] nº 0527173-63.1994.4.03.6100, cujos requisitórios foram expedidos de forma apartada da verba principal;</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -789,23 +835,28 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>BR-101</t>
+          <t>BR-101)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SP (</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>STF</t>
+          <t>STF)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">			(b) Tal verba, de natureza alimentar (Súmula Vinculante 47/[ORG], é autônoma e não possui relação com a indenização devida pela União em decorrência da desapropriação de áreas situadas no município de Ubatuba/[ORG]Ubatumirim) na década de setenta para a expansão de rodovia federal ([ORG];</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -819,7 +870,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>AGRÍCOLA AREIA BRANCA</t>
+          <t>AGRÍCOLA AREIA BRANCA.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -832,6 +883,11 @@
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">			(c) Eventual confusão entre áreas desapropriadas, conforme alegação descrita no parecer, se daria exclusivamente por uma sobreposição de glebas dos [PER] com outra limítrofe e titulada pela companhia [ORG] Aliás, conforme expressamente reconhecido na proposta de 16/08/2024; e </t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -845,7 +901,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>BR-101</t>
+          <t>BR-101 reivindicado</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -855,7 +911,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>O transcurso</t>
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
@@ -866,6 +922,11 @@
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">			(d) [ORG] de décadas sem oposição, a tempo e modo, pelo [ORG] ([PER]) ocorrendo, sem qualquer dúvida, a extinção de eventual direito pela ocorrência da prescrição, uma vez que a o trecho da estrada [ORG] fora construído há mais de 50 (cinquenta) anos.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -892,6 +953,11 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">			Vimos notificá-lo da inconsistência da pretensão vertida no parecer e na proposição e da tentativa ilegítima da postulação frente à Notificante, a qual defenderá seu direito em qualquer via que se fizer necessária, inclusive na seara deontológica.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -922,6 +988,11 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">			Finalmente, em eventual investida judicial, a Notificante vindica que o Notificado apresente judicialmente esta missiva em demonstração de boa-fé processual e respeito ao Poder Judiciário.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -939,7 +1010,8 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
         <is>
           <t xml:space="preserve">			Sem mais para o momento, firmamo-nos, atenciosamente,</t>
         </is>
@@ -955,17 +1027,22 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>AFRANIO AFFONSO FERREIRA NETO</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>AFRANIO AFFONSO FERREIRA NETO</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>[PER]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -976,18 +1053,23 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>OAB-SP</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>OAB-SP nº 155.406</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>[OAB]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1010,6 +1092,11 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>[ORG]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1020,18 +1107,23 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>OAB-SP</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>OAB-SP nº 207.405</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>[OAB]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
